--- a/TTDNTN_HeThongQuanLyKhachHangChoDoanhNghiepNho/CheckList.xlsx
+++ b/TTDNTN_HeThongQuanLyKhachHangChoDoanhNghiepNho/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C3MCJ\Git\document\TTDNTN_HeThongQuanLyKhachHangChoDoanhNghiepNho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3761B284-A694-47C8-AA43-AC03E3AE480E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AFC619-127A-47C8-A149-967085FE1DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B68468CE-C17E-4262-B75D-4AE63EE54E4A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
   <si>
     <t>CheckList</t>
   </si>
@@ -291,10 +291,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -304,13 +310,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,7 +647,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,353 +659,349 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
+      <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="A8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="A9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="A18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="A19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="A20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="A24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="A25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="A30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="A31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="8" t="s">
+      <c r="A32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="8" t="s">
+      <c r="A33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="8" t="s">
+      <c r="A34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="8" t="s">
         <v>34</v>
       </c>
     </row>
